--- a/biology/Médecine/1893_en_santé_et_médecine/1893_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1893_en_santé_et_médecine/1893_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1893_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1893_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1893 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1893_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1893_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Avril : au Bengale, le bactériologiste Waldemar Haffkine, membre de l’Institut Pasteur, commence une campagne de vaccination[1]. Il vaccine 45 000 personnes avec une forme atténuée du bacille du choléra après avoir testé le vaccin sur lui-même. Il parvient ainsi à réduire le taux de mortalité de 75 % parmi les personnes qui ont été inoculées.
-10 juillet : chirurgien américain Daniel Hale Williams pratique à Chicago la première opération à cœur ouvert réussie[2].
-Pour la première fois, l'Université de Sydney délivre son diplôme de médecin à deux étudiantes : Iza Coghlan and Grace Robinson[3].
-Le neurologue russe Vladimir Bekhterev décrit la spondylarthrite ankylosante dans un article intitulé Steifigkeit der Wirbelsäule und ihre Verkrümmung als besondere Erkrankungsform[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Avril : au Bengale, le bactériologiste Waldemar Haffkine, membre de l’Institut Pasteur, commence une campagne de vaccination. Il vaccine 45 000 personnes avec une forme atténuée du bacille du choléra après avoir testé le vaccin sur lui-même. Il parvient ainsi à réduire le taux de mortalité de 75 % parmi les personnes qui ont été inoculées.
+10 juillet : chirurgien américain Daniel Hale Williams pratique à Chicago la première opération à cœur ouvert réussie.
+Pour la première fois, l'Université de Sydney délivre son diplôme de médecin à deux étudiantes : Iza Coghlan and Grace Robinson.
+Le neurologue russe Vladimir Bekhterev décrit la spondylarthrite ankylosante dans un article intitulé Steifigkeit der Wirbelsäule und ihre Verkrümmung als besondere Erkrankungsform.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1893_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1893_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Emil Kraepelin : Lehrbuch der Psychiatrie. Il introduit le concept de démence précoce dans la classification des troubles mentaux.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1893_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1893_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10 avril : Lucien Leclerc (né en 1816), médecin militaire, traducteur et historien de la médecine arabe[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 avril : Lucien Leclerc (né en 1816), médecin militaire, traducteur et historien de la médecine arabe,.
 6 novembre : Justin Benoît (né en 1813), chirurgien français.
-25 décembre : Marie Durocher (née en 1809), gynécologue, sage-femme et médecin brésilienne, première femme médecin en Amérique latine[7].</t>
+25 décembre : Marie Durocher (née en 1809), gynécologue, sage-femme et médecin brésilienne, première femme médecin en Amérique latine.</t>
         </is>
       </c>
     </row>
